--- a/ADNIsubjects_fmri_PreprocessTrack.xlsx
+++ b/ADNIsubjects_fmri_PreprocessTrack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="177">
   <si>
     <t>subject ID</t>
   </si>
@@ -541,6 +541,12 @@
   </si>
   <si>
     <t>Y missing image frames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>No Data</t>
   </si>
 </sst>
 </file>
@@ -874,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1147,7 +1153,7 @@
       </c>
       <c r="J16">
         <f>COUNTIF(D:D,"Y")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1239,6 +1245,12 @@
       <c r="B22" t="s">
         <v>169</v>
       </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" t="s">
+        <v>169</v>
+      </c>
       <c r="E22" t="s">
         <v>28</v>
       </c>
@@ -1278,6 +1290,12 @@
       <c r="B25" t="s">
         <v>169</v>
       </c>
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
       <c r="E25" t="s">
         <v>28</v>
       </c>
@@ -1343,6 +1361,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="33" spans="1:5">
+      <c r="D33" t="s">
+        <v>175</v>
+      </c>
+    </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>35</v>
@@ -1369,6 +1392,9 @@
       <c r="A36" t="s">
         <v>37</v>
       </c>
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
       <c r="E36" t="s">
         <v>34</v>
       </c>
@@ -1377,6 +1403,9 @@
       <c r="A37" t="s">
         <v>38</v>
       </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
       <c r="E37" t="s">
         <v>34</v>
       </c>
@@ -1385,6 +1414,9 @@
       <c r="A38" t="s">
         <v>39</v>
       </c>
+      <c r="B38" t="s">
+        <v>169</v>
+      </c>
       <c r="E38" t="s">
         <v>34</v>
       </c>
@@ -1393,6 +1425,9 @@
       <c r="A39" t="s">
         <v>40</v>
       </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
       <c r="E39" t="s">
         <v>34</v>
       </c>
@@ -1401,6 +1436,9 @@
       <c r="A40" t="s">
         <v>41</v>
       </c>
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
       <c r="E40" t="s">
         <v>34</v>
       </c>
@@ -1409,6 +1447,9 @@
       <c r="A41" t="s">
         <v>42</v>
       </c>
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
       <c r="E41" t="s">
         <v>34</v>
       </c>
@@ -1417,6 +1458,9 @@
       <c r="A42" t="s">
         <v>43</v>
       </c>
+      <c r="B42" t="s">
+        <v>169</v>
+      </c>
       <c r="E42" t="s">
         <v>34</v>
       </c>
@@ -1425,6 +1469,9 @@
       <c r="A43" t="s">
         <v>44</v>
       </c>
+      <c r="B43" t="s">
+        <v>176</v>
+      </c>
       <c r="E43" t="s">
         <v>34</v>
       </c>
@@ -1433,6 +1480,9 @@
       <c r="A44" t="s">
         <v>45</v>
       </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
       <c r="E44" t="s">
         <v>34</v>
       </c>
@@ -1441,6 +1491,9 @@
       <c r="A45" t="s">
         <v>46</v>
       </c>
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
       <c r="E45" t="s">
         <v>34</v>
       </c>
@@ -1449,6 +1502,9 @@
       <c r="A46" t="s">
         <v>47</v>
       </c>
+      <c r="B46" t="s">
+        <v>169</v>
+      </c>
       <c r="E46" t="s">
         <v>34</v>
       </c>
@@ -1457,6 +1513,9 @@
       <c r="A47" t="s">
         <v>48</v>
       </c>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
       <c r="E47" t="s">
         <v>34</v>
       </c>
@@ -1464,6 +1523,9 @@
     <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>169</v>
       </c>
       <c r="E48" t="s">
         <v>34</v>

--- a/ADNIsubjects_fmri_PreprocessTrack.xlsx
+++ b/ADNIsubjects_fmri_PreprocessTrack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="187">
   <si>
     <t>subject ID</t>
   </si>
@@ -99,9 +99,6 @@
     <t>136_S_4993</t>
   </si>
   <si>
-    <t>class</t>
-  </si>
-  <si>
     <t>ADNI</t>
   </si>
   <si>
@@ -528,9 +525,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>The num of the processed subjects</t>
-  </si>
-  <si>
     <t>Y missing image frame</t>
   </si>
   <si>
@@ -547,6 +541,42 @@
   </si>
   <si>
     <t>No Data</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the file </t>
+  </si>
+  <si>
+    <t>RawData</t>
+  </si>
+  <si>
+    <t>/hecuba/mcintosh_lab/kshen/ADNI_PPMI/ADNI/wfMRI</t>
+  </si>
+  <si>
+    <t>/hecuba/mcintosh_lab/jwang/results/wfMRI/</t>
+  </si>
+  <si>
+    <t>${subID}/bold/${subID}_fMRI_new.mat</t>
+  </si>
+  <si>
+    <t>Total Subjects</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>The No. of the processed subjects successfully</t>
+  </si>
+  <si>
+    <t>Failed Subjects</t>
+  </si>
+  <si>
+    <t>The running subjects</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -880,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -906,21 +936,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>186</v>
+      </c>
+      <c r="I1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -928,16 +967,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -945,16 +984,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -962,16 +1004,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -979,16 +1024,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -996,16 +1041,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1013,16 +1061,19 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1030,16 +1081,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1047,16 +1098,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1064,16 +1115,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1081,10 +1132,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1092,10 +1146,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="D13" t="s">
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1103,16 +1163,20 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="J14">
+        <f>COUNTA(A:A)-1</f>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1120,19 +1184,19 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1140,54 +1204,61 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16">
         <f>COUNTIF(D:D,"Y")</f>
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="J18">
+        <f>COUNTIF(D:D,"X")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1195,16 +1266,19 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1212,47 +1286,54 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="J20">
+        <f>COUNTA(B:B)-COUNTA(D:D)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="D21" t="s">
+        <v>182</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1260,16 +1341,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1277,27 +1358,30 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="D24" t="s">
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1305,27 +1389,33 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" t="s">
+        <v>168</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1333,10 +1423,16 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" t="s">
+        <v>168</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1344,10 +1440,16 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="C29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" t="s">
+        <v>168</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1355,1108 +1457,1165 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="D33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="C34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" t="s">
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" t="s">
+        <v>168</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="C36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" t="s">
+        <v>168</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="C38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" t="s">
+        <v>168</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="D43" t="s">
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="D44" t="s">
+        <v>182</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>168</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>168</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>168</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E125" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E131" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E139" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E140" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E141" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E143" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E146" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E147" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E151" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E153" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E154" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E156" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E157" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E160" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/ADNIsubjects_fmri_PreprocessTrack.xlsx
+++ b/ADNIsubjects_fmri_PreprocessTrack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="189">
   <si>
     <t>subject ID</t>
   </si>
@@ -577,6 +577,12 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>Y Segmentation fault</t>
+  </si>
+  <si>
+    <t>Y no Data</t>
   </si>
 </sst>
 </file>
@@ -910,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1217,7 +1223,7 @@
       </c>
       <c r="J16">
         <f>COUNTIF(D:D,"Y")</f>
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1258,7 +1264,7 @@
       </c>
       <c r="J18">
         <f>COUNTIF(D:D,"X")</f>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1299,7 +1305,7 @@
       </c>
       <c r="J20">
         <f>COUNTA(B:B)-COUNTA(D:D)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1532,6 +1538,12 @@
       <c r="B37" t="s">
         <v>168</v>
       </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" t="s">
+        <v>168</v>
+      </c>
       <c r="E37" t="s">
         <v>33</v>
       </c>
@@ -1560,6 +1572,12 @@
       <c r="B39" t="s">
         <v>168</v>
       </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
       <c r="E39" t="s">
         <v>33</v>
       </c>
@@ -1571,6 +1589,12 @@
       <c r="B40" t="s">
         <v>168</v>
       </c>
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" t="s">
+        <v>168</v>
+      </c>
       <c r="E40" t="s">
         <v>33</v>
       </c>
@@ -1582,6 +1606,12 @@
       <c r="B41" t="s">
         <v>168</v>
       </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" t="s">
+        <v>168</v>
+      </c>
       <c r="E41" t="s">
         <v>33</v>
       </c>
@@ -1593,6 +1623,12 @@
       <c r="B42" t="s">
         <v>168</v>
       </c>
+      <c r="C42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
       <c r="E42" t="s">
         <v>33</v>
       </c>
@@ -1632,6 +1668,12 @@
       <c r="B45" t="s">
         <v>168</v>
       </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" t="s">
+        <v>168</v>
+      </c>
       <c r="E45" t="s">
         <v>33</v>
       </c>
@@ -1643,6 +1685,12 @@
       <c r="B46" t="s">
         <v>168</v>
       </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" t="s">
+        <v>168</v>
+      </c>
       <c r="E46" t="s">
         <v>33</v>
       </c>
@@ -1654,6 +1702,12 @@
       <c r="B47" t="s">
         <v>168</v>
       </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
       <c r="E47" t="s">
         <v>33</v>
       </c>
@@ -1665,6 +1719,9 @@
       <c r="B48" t="s">
         <v>168</v>
       </c>
+      <c r="C48" t="s">
+        <v>168</v>
+      </c>
       <c r="E48" t="s">
         <v>33</v>
       </c>
@@ -1676,6 +1733,12 @@
       <c r="B49" t="s">
         <v>168</v>
       </c>
+      <c r="C49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
       <c r="E49" t="s">
         <v>33</v>
       </c>
@@ -1687,6 +1750,12 @@
       <c r="B50" t="s">
         <v>168</v>
       </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>168</v>
+      </c>
       <c r="E50" t="s">
         <v>33</v>
       </c>
@@ -1698,6 +1767,12 @@
       <c r="B51" t="s">
         <v>168</v>
       </c>
+      <c r="C51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" t="s">
+        <v>168</v>
+      </c>
       <c r="E51" t="s">
         <v>33</v>
       </c>
@@ -1709,6 +1784,12 @@
       <c r="B52" t="s">
         <v>168</v>
       </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" t="s">
+        <v>168</v>
+      </c>
       <c r="E52" t="s">
         <v>33</v>
       </c>
@@ -1720,6 +1801,12 @@
       <c r="B53" t="s">
         <v>168</v>
       </c>
+      <c r="C53" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" t="s">
+        <v>168</v>
+      </c>
       <c r="E53" t="s">
         <v>33</v>
       </c>
@@ -1731,6 +1818,12 @@
       <c r="B54" t="s">
         <v>168</v>
       </c>
+      <c r="C54" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" t="s">
+        <v>168</v>
+      </c>
       <c r="E54" t="s">
         <v>33</v>
       </c>
@@ -1742,6 +1835,12 @@
       <c r="B55" t="s">
         <v>168</v>
       </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" t="s">
+        <v>168</v>
+      </c>
       <c r="E55" t="s">
         <v>33</v>
       </c>
@@ -1750,6 +1849,15 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" t="s">
+        <v>168</v>
+      </c>
       <c r="E56" t="s">
         <v>33</v>
       </c>
@@ -1758,6 +1866,15 @@
       <c r="A57" t="s">
         <v>57</v>
       </c>
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" t="s">
+        <v>168</v>
+      </c>
       <c r="E57" t="s">
         <v>33</v>
       </c>
@@ -1766,6 +1883,12 @@
       <c r="A58" t="s">
         <v>58</v>
       </c>
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" t="s">
+        <v>182</v>
+      </c>
       <c r="E58" t="s">
         <v>33</v>
       </c>
@@ -1774,6 +1897,12 @@
       <c r="A59" t="s">
         <v>59</v>
       </c>
+      <c r="B59" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" t="s">
+        <v>182</v>
+      </c>
       <c r="E59" t="s">
         <v>33</v>
       </c>
@@ -1782,6 +1911,12 @@
       <c r="A60" t="s">
         <v>60</v>
       </c>
+      <c r="B60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" t="s">
+        <v>182</v>
+      </c>
       <c r="E60" t="s">
         <v>33</v>
       </c>
@@ -1790,6 +1925,12 @@
       <c r="A61" t="s">
         <v>28</v>
       </c>
+      <c r="B61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" t="s">
+        <v>182</v>
+      </c>
       <c r="E61" t="s">
         <v>33</v>
       </c>
@@ -1798,6 +1939,12 @@
       <c r="A62" t="s">
         <v>29</v>
       </c>
+      <c r="B62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" t="s">
+        <v>182</v>
+      </c>
       <c r="E62" t="s">
         <v>33</v>
       </c>
@@ -1806,6 +1953,12 @@
       <c r="A63" t="s">
         <v>61</v>
       </c>
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" t="s">
+        <v>182</v>
+      </c>
       <c r="E63" t="s">
         <v>33</v>
       </c>
@@ -1814,6 +1967,12 @@
       <c r="A64" t="s">
         <v>62</v>
       </c>
+      <c r="B64" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" t="s">
+        <v>182</v>
+      </c>
       <c r="E64" t="s">
         <v>33</v>
       </c>
@@ -1822,6 +1981,12 @@
       <c r="A65" t="s">
         <v>63</v>
       </c>
+      <c r="B65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" t="s">
+        <v>182</v>
+      </c>
       <c r="E65" t="s">
         <v>33</v>
       </c>
@@ -1830,6 +1995,12 @@
       <c r="A66" t="s">
         <v>64</v>
       </c>
+      <c r="B66" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" t="s">
+        <v>182</v>
+      </c>
       <c r="E66" t="s">
         <v>33</v>
       </c>
@@ -1838,6 +2009,12 @@
       <c r="A67" t="s">
         <v>65</v>
       </c>
+      <c r="B67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" t="s">
+        <v>182</v>
+      </c>
       <c r="E67" t="s">
         <v>33</v>
       </c>
@@ -1846,6 +2023,12 @@
       <c r="A68" t="s">
         <v>66</v>
       </c>
+      <c r="B68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" t="s">
+        <v>182</v>
+      </c>
       <c r="E68" t="s">
         <v>33</v>
       </c>
@@ -1854,6 +2037,12 @@
       <c r="A69" t="s">
         <v>67</v>
       </c>
+      <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" t="s">
+        <v>182</v>
+      </c>
       <c r="E69" t="s">
         <v>33</v>
       </c>
@@ -1862,6 +2051,15 @@
       <c r="A70" t="s">
         <v>68</v>
       </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" t="s">
+        <v>168</v>
+      </c>
       <c r="E70" t="s">
         <v>33</v>
       </c>
@@ -1870,6 +2068,15 @@
       <c r="A71" t="s">
         <v>69</v>
       </c>
+      <c r="B71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" t="s">
+        <v>168</v>
+      </c>
       <c r="E71" t="s">
         <v>33</v>
       </c>
@@ -1878,6 +2085,15 @@
       <c r="A72" t="s">
         <v>30</v>
       </c>
+      <c r="B72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" t="s">
+        <v>168</v>
+      </c>
       <c r="E72" t="s">
         <v>33</v>
       </c>
@@ -1886,6 +2102,15 @@
       <c r="A73" t="s">
         <v>70</v>
       </c>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" t="s">
+        <v>168</v>
+      </c>
       <c r="E73" t="s">
         <v>33</v>
       </c>
@@ -1894,6 +2119,15 @@
       <c r="A74" t="s">
         <v>71</v>
       </c>
+      <c r="B74" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" t="s">
+        <v>168</v>
+      </c>
       <c r="E74" t="s">
         <v>33</v>
       </c>
@@ -1902,6 +2136,15 @@
       <c r="A75" t="s">
         <v>72</v>
       </c>
+      <c r="B75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" t="s">
+        <v>168</v>
+      </c>
       <c r="E75" t="s">
         <v>33</v>
       </c>
@@ -1910,6 +2153,12 @@
       <c r="A76" t="s">
         <v>73</v>
       </c>
+      <c r="B76" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" t="s">
+        <v>182</v>
+      </c>
       <c r="E76" t="s">
         <v>33</v>
       </c>
@@ -1918,6 +2167,15 @@
       <c r="A77" t="s">
         <v>74</v>
       </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" t="s">
+        <v>168</v>
+      </c>
       <c r="E77" t="s">
         <v>33</v>
       </c>
@@ -1926,6 +2184,15 @@
       <c r="A78" t="s">
         <v>75</v>
       </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" t="s">
+        <v>168</v>
+      </c>
       <c r="E78" t="s">
         <v>33</v>
       </c>
@@ -1934,6 +2201,15 @@
       <c r="A79" t="s">
         <v>31</v>
       </c>
+      <c r="B79" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" t="s">
+        <v>168</v>
+      </c>
       <c r="E79" t="s">
         <v>33</v>
       </c>
@@ -1942,6 +2218,15 @@
       <c r="A80" t="s">
         <v>32</v>
       </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" t="s">
+        <v>168</v>
+      </c>
       <c r="E80" t="s">
         <v>33</v>
       </c>
@@ -1950,6 +2235,12 @@
       <c r="A81" t="s">
         <v>76</v>
       </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" t="s">
+        <v>182</v>
+      </c>
       <c r="E81" t="s">
         <v>33</v>
       </c>
@@ -1958,6 +2249,15 @@
       <c r="A84" t="s">
         <v>83</v>
       </c>
+      <c r="B84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" t="s">
+        <v>168</v>
+      </c>
       <c r="E84" t="s">
         <v>122</v>
       </c>
@@ -1966,6 +2266,9 @@
       <c r="A85" t="s">
         <v>84</v>
       </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
       <c r="E85" t="s">
         <v>122</v>
       </c>
@@ -1974,6 +2277,9 @@
       <c r="A86" t="s">
         <v>85</v>
       </c>
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
       <c r="E86" t="s">
         <v>122</v>
       </c>
@@ -1982,6 +2288,9 @@
       <c r="A87" t="s">
         <v>86</v>
       </c>
+      <c r="B87" t="s">
+        <v>168</v>
+      </c>
       <c r="E87" t="s">
         <v>122</v>
       </c>
@@ -1990,6 +2299,9 @@
       <c r="A88" t="s">
         <v>87</v>
       </c>
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
       <c r="E88" t="s">
         <v>122</v>
       </c>
@@ -1998,6 +2310,9 @@
       <c r="A89" t="s">
         <v>88</v>
       </c>
+      <c r="B89" t="s">
+        <v>168</v>
+      </c>
       <c r="E89" t="s">
         <v>122</v>
       </c>
@@ -2006,6 +2321,9 @@
       <c r="A90" t="s">
         <v>89</v>
       </c>
+      <c r="B90" t="s">
+        <v>168</v>
+      </c>
       <c r="E90" t="s">
         <v>122</v>
       </c>
@@ -2014,6 +2332,9 @@
       <c r="A91" t="s">
         <v>90</v>
       </c>
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
       <c r="E91" t="s">
         <v>122</v>
       </c>
@@ -2022,6 +2343,9 @@
       <c r="A92" t="s">
         <v>91</v>
       </c>
+      <c r="B92" t="s">
+        <v>168</v>
+      </c>
       <c r="E92" t="s">
         <v>122</v>
       </c>
@@ -2030,6 +2354,9 @@
       <c r="A93" t="s">
         <v>92</v>
       </c>
+      <c r="B93" t="s">
+        <v>168</v>
+      </c>
       <c r="E93" t="s">
         <v>122</v>
       </c>
@@ -2038,6 +2365,9 @@
       <c r="A94" t="s">
         <v>93</v>
       </c>
+      <c r="B94" t="s">
+        <v>168</v>
+      </c>
       <c r="E94" t="s">
         <v>122</v>
       </c>
@@ -2046,6 +2376,9 @@
       <c r="A95" t="s">
         <v>94</v>
       </c>
+      <c r="B95" t="s">
+        <v>168</v>
+      </c>
       <c r="E95" t="s">
         <v>122</v>
       </c>
@@ -2054,6 +2387,9 @@
       <c r="A96" t="s">
         <v>95</v>
       </c>
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
       <c r="E96" t="s">
         <v>122</v>
       </c>
@@ -2061,6 +2397,9 @@
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>168</v>
       </c>
       <c r="E97" t="s">
         <v>122</v>

--- a/ADNIsubjects_fmri_PreprocessTrack.xlsx
+++ b/ADNIsubjects_fmri_PreprocessTrack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="189">
   <si>
     <t>subject ID</t>
   </si>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="J16">
         <f>COUNTIF(D:D,"Y")</f>
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="J18">
         <f>COUNTIF(D:D,"X")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="J20">
         <f>COUNTA(B:B)-COUNTA(D:D)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1722,6 +1722,9 @@
       <c r="C48" t="s">
         <v>168</v>
       </c>
+      <c r="D48" t="s">
+        <v>168</v>
+      </c>
       <c r="E48" t="s">
         <v>33</v>
       </c>
@@ -2269,6 +2272,12 @@
       <c r="B85" t="s">
         <v>168</v>
       </c>
+      <c r="C85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" t="s">
+        <v>168</v>
+      </c>
       <c r="E85" t="s">
         <v>122</v>
       </c>
@@ -2280,6 +2289,12 @@
       <c r="B86" t="s">
         <v>168</v>
       </c>
+      <c r="C86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" t="s">
+        <v>168</v>
+      </c>
       <c r="E86" t="s">
         <v>122</v>
       </c>
@@ -2291,6 +2306,12 @@
       <c r="B87" t="s">
         <v>168</v>
       </c>
+      <c r="C87" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" t="s">
+        <v>168</v>
+      </c>
       <c r="E87" t="s">
         <v>122</v>
       </c>
@@ -2302,6 +2323,12 @@
       <c r="B88" t="s">
         <v>168</v>
       </c>
+      <c r="C88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" t="s">
+        <v>168</v>
+      </c>
       <c r="E88" t="s">
         <v>122</v>
       </c>
@@ -2313,6 +2340,12 @@
       <c r="B89" t="s">
         <v>168</v>
       </c>
+      <c r="C89" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89" t="s">
+        <v>168</v>
+      </c>
       <c r="E89" t="s">
         <v>122</v>
       </c>
@@ -2324,6 +2357,9 @@
       <c r="B90" t="s">
         <v>168</v>
       </c>
+      <c r="D90" t="s">
+        <v>182</v>
+      </c>
       <c r="E90" t="s">
         <v>122</v>
       </c>
@@ -2335,6 +2371,12 @@
       <c r="B91" t="s">
         <v>168</v>
       </c>
+      <c r="C91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" t="s">
+        <v>168</v>
+      </c>
       <c r="E91" t="s">
         <v>122</v>
       </c>
@@ -2346,6 +2388,12 @@
       <c r="B92" t="s">
         <v>168</v>
       </c>
+      <c r="C92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" t="s">
+        <v>168</v>
+      </c>
       <c r="E92" t="s">
         <v>122</v>
       </c>
@@ -2357,6 +2405,12 @@
       <c r="B93" t="s">
         <v>168</v>
       </c>
+      <c r="C93" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" t="s">
+        <v>168</v>
+      </c>
       <c r="E93" t="s">
         <v>122</v>
       </c>
@@ -2368,6 +2422,12 @@
       <c r="B94" t="s">
         <v>168</v>
       </c>
+      <c r="C94" t="s">
+        <v>168</v>
+      </c>
+      <c r="D94" t="s">
+        <v>168</v>
+      </c>
       <c r="E94" t="s">
         <v>122</v>
       </c>
@@ -2409,6 +2469,9 @@
       <c r="A98" t="s">
         <v>97</v>
       </c>
+      <c r="B98" t="s">
+        <v>168</v>
+      </c>
       <c r="E98" t="s">
         <v>122</v>
       </c>
@@ -2417,6 +2480,9 @@
       <c r="A99" t="s">
         <v>98</v>
       </c>
+      <c r="B99" t="s">
+        <v>168</v>
+      </c>
       <c r="E99" t="s">
         <v>122</v>
       </c>
@@ -2425,6 +2491,9 @@
       <c r="A100" t="s">
         <v>99</v>
       </c>
+      <c r="B100" t="s">
+        <v>168</v>
+      </c>
       <c r="E100" t="s">
         <v>122</v>
       </c>
@@ -2433,6 +2502,9 @@
       <c r="A101" t="s">
         <v>100</v>
       </c>
+      <c r="B101" t="s">
+        <v>168</v>
+      </c>
       <c r="E101" t="s">
         <v>122</v>
       </c>
@@ -2441,6 +2513,9 @@
       <c r="A102" t="s">
         <v>101</v>
       </c>
+      <c r="B102" t="s">
+        <v>168</v>
+      </c>
       <c r="E102" t="s">
         <v>122</v>
       </c>
@@ -2449,6 +2524,9 @@
       <c r="A103" t="s">
         <v>102</v>
       </c>
+      <c r="B103" t="s">
+        <v>168</v>
+      </c>
       <c r="E103" t="s">
         <v>122</v>
       </c>
@@ -2457,6 +2535,9 @@
       <c r="A104" t="s">
         <v>103</v>
       </c>
+      <c r="B104" t="s">
+        <v>168</v>
+      </c>
       <c r="E104" t="s">
         <v>122</v>
       </c>
@@ -2465,6 +2546,9 @@
       <c r="A105" t="s">
         <v>104</v>
       </c>
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
       <c r="E105" t="s">
         <v>122</v>
       </c>
@@ -2473,6 +2557,9 @@
       <c r="A106" t="s">
         <v>105</v>
       </c>
+      <c r="B106" t="s">
+        <v>168</v>
+      </c>
       <c r="E106" t="s">
         <v>122</v>
       </c>
@@ -2481,6 +2568,9 @@
       <c r="A107" t="s">
         <v>106</v>
       </c>
+      <c r="B107" t="s">
+        <v>168</v>
+      </c>
       <c r="E107" t="s">
         <v>122</v>
       </c>
@@ -2489,6 +2579,9 @@
       <c r="A108" t="s">
         <v>107</v>
       </c>
+      <c r="B108" t="s">
+        <v>168</v>
+      </c>
       <c r="E108" t="s">
         <v>122</v>
       </c>
@@ -2497,6 +2590,9 @@
       <c r="A109" t="s">
         <v>108</v>
       </c>
+      <c r="B109" t="s">
+        <v>168</v>
+      </c>
       <c r="E109" t="s">
         <v>122</v>
       </c>
@@ -2504,6 +2600,9 @@
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>168</v>
       </c>
       <c r="E110" t="s">
         <v>122</v>

--- a/ADNIsubjects_fmri_PreprocessTrack.xlsx
+++ b/ADNIsubjects_fmri_PreprocessTrack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="190">
   <si>
     <t>subject ID</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>Y no Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y </t>
   </si>
 </sst>
 </file>
@@ -916,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1223,7 +1226,7 @@
       </c>
       <c r="J16">
         <f>COUNTIF(D:D,"Y")</f>
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1264,7 +1267,7 @@
       </c>
       <c r="J18">
         <f>COUNTIF(D:D,"X")</f>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1305,7 +1308,7 @@
       </c>
       <c r="J20">
         <f>COUNTA(B:B)-COUNTA(D:D)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2439,6 +2442,12 @@
       <c r="B95" t="s">
         <v>168</v>
       </c>
+      <c r="C95" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" t="s">
+        <v>168</v>
+      </c>
       <c r="E95" t="s">
         <v>122</v>
       </c>
@@ -2448,6 +2457,12 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" t="s">
+        <v>168</v>
+      </c>
+      <c r="D96" t="s">
         <v>168</v>
       </c>
       <c r="E96" t="s">
@@ -2461,6 +2476,12 @@
       <c r="B97" t="s">
         <v>168</v>
       </c>
+      <c r="C97" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" t="s">
+        <v>168</v>
+      </c>
       <c r="E97" t="s">
         <v>122</v>
       </c>
@@ -2472,6 +2493,12 @@
       <c r="B98" t="s">
         <v>168</v>
       </c>
+      <c r="C98" t="s">
+        <v>168</v>
+      </c>
+      <c r="D98" t="s">
+        <v>168</v>
+      </c>
       <c r="E98" t="s">
         <v>122</v>
       </c>
@@ -2483,6 +2510,12 @@
       <c r="B99" t="s">
         <v>168</v>
       </c>
+      <c r="C99" t="s">
+        <v>168</v>
+      </c>
+      <c r="D99" t="s">
+        <v>168</v>
+      </c>
       <c r="E99" t="s">
         <v>122</v>
       </c>
@@ -2494,6 +2527,12 @@
       <c r="B100" t="s">
         <v>168</v>
       </c>
+      <c r="C100" t="s">
+        <v>168</v>
+      </c>
+      <c r="D100" t="s">
+        <v>168</v>
+      </c>
       <c r="E100" t="s">
         <v>122</v>
       </c>
@@ -2505,6 +2544,12 @@
       <c r="B101" t="s">
         <v>168</v>
       </c>
+      <c r="C101" t="s">
+        <v>168</v>
+      </c>
+      <c r="D101" t="s">
+        <v>168</v>
+      </c>
       <c r="E101" t="s">
         <v>122</v>
       </c>
@@ -2516,6 +2561,12 @@
       <c r="B102" t="s">
         <v>168</v>
       </c>
+      <c r="C102" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" t="s">
+        <v>168</v>
+      </c>
       <c r="E102" t="s">
         <v>122</v>
       </c>
@@ -2527,6 +2578,12 @@
       <c r="B103" t="s">
         <v>168</v>
       </c>
+      <c r="C103" t="s">
+        <v>168</v>
+      </c>
+      <c r="D103" t="s">
+        <v>168</v>
+      </c>
       <c r="E103" t="s">
         <v>122</v>
       </c>
@@ -2538,6 +2595,12 @@
       <c r="B104" t="s">
         <v>168</v>
       </c>
+      <c r="C104" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104" t="s">
+        <v>168</v>
+      </c>
       <c r="E104" t="s">
         <v>122</v>
       </c>
@@ -2549,6 +2612,12 @@
       <c r="B105" t="s">
         <v>168</v>
       </c>
+      <c r="C105" t="s">
+        <v>168</v>
+      </c>
+      <c r="D105" t="s">
+        <v>168</v>
+      </c>
       <c r="E105" t="s">
         <v>122</v>
       </c>
@@ -2558,7 +2627,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="D106" t="s">
+        <v>182</v>
       </c>
       <c r="E106" t="s">
         <v>122</v>
@@ -2569,7 +2641,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="D107" t="s">
+        <v>182</v>
       </c>
       <c r="E107" t="s">
         <v>122</v>
@@ -2580,7 +2655,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="D108" t="s">
+        <v>182</v>
       </c>
       <c r="E108" t="s">
         <v>122</v>
@@ -2591,7 +2669,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="D109" t="s">
+        <v>182</v>
       </c>
       <c r="E109" t="s">
         <v>122</v>
@@ -2602,7 +2683,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="D110" t="s">
+        <v>182</v>
       </c>
       <c r="E110" t="s">
         <v>122</v>
@@ -2612,6 +2696,9 @@
       <c r="A111" t="s">
         <v>110</v>
       </c>
+      <c r="B111" t="s">
+        <v>168</v>
+      </c>
       <c r="E111" t="s">
         <v>122</v>
       </c>
@@ -2620,6 +2707,12 @@
       <c r="A112" t="s">
         <v>111</v>
       </c>
+      <c r="B112" t="s">
+        <v>174</v>
+      </c>
+      <c r="D112" t="s">
+        <v>182</v>
+      </c>
       <c r="E112" t="s">
         <v>122</v>
       </c>
@@ -2628,6 +2721,12 @@
       <c r="A113" t="s">
         <v>112</v>
       </c>
+      <c r="B113" t="s">
+        <v>174</v>
+      </c>
+      <c r="D113" t="s">
+        <v>182</v>
+      </c>
       <c r="E113" t="s">
         <v>122</v>
       </c>
@@ -2636,6 +2735,9 @@
       <c r="A114" t="s">
         <v>113</v>
       </c>
+      <c r="B114" t="s">
+        <v>168</v>
+      </c>
       <c r="E114" t="s">
         <v>122</v>
       </c>
@@ -2644,6 +2746,9 @@
       <c r="A115" t="s">
         <v>114</v>
       </c>
+      <c r="B115" t="s">
+        <v>168</v>
+      </c>
       <c r="E115" t="s">
         <v>122</v>
       </c>
@@ -2652,6 +2757,9 @@
       <c r="A116" t="s">
         <v>115</v>
       </c>
+      <c r="B116" t="s">
+        <v>168</v>
+      </c>
       <c r="E116" t="s">
         <v>122</v>
       </c>
@@ -2660,6 +2768,9 @@
       <c r="A117" t="s">
         <v>116</v>
       </c>
+      <c r="B117" t="s">
+        <v>168</v>
+      </c>
       <c r="E117" t="s">
         <v>122</v>
       </c>
@@ -2668,6 +2779,9 @@
       <c r="A118" t="s">
         <v>117</v>
       </c>
+      <c r="B118" t="s">
+        <v>168</v>
+      </c>
       <c r="E118" t="s">
         <v>122</v>
       </c>
@@ -2676,6 +2790,9 @@
       <c r="A119" t="s">
         <v>118</v>
       </c>
+      <c r="B119" t="s">
+        <v>168</v>
+      </c>
       <c r="E119" t="s">
         <v>122</v>
       </c>
@@ -2684,6 +2801,9 @@
       <c r="A120" t="s">
         <v>119</v>
       </c>
+      <c r="B120" t="s">
+        <v>168</v>
+      </c>
       <c r="E120" t="s">
         <v>122</v>
       </c>
@@ -2692,6 +2812,9 @@
       <c r="A121" t="s">
         <v>120</v>
       </c>
+      <c r="B121" t="s">
+        <v>168</v>
+      </c>
       <c r="E121" t="s">
         <v>122</v>
       </c>
@@ -2700,6 +2823,9 @@
       <c r="A122" t="s">
         <v>121</v>
       </c>
+      <c r="B122" t="s">
+        <v>168</v>
+      </c>
       <c r="E122" t="s">
         <v>122</v>
       </c>
@@ -2708,6 +2834,9 @@
       <c r="A125" t="s">
         <v>123</v>
       </c>
+      <c r="B125" t="s">
+        <v>168</v>
+      </c>
       <c r="E125" t="s">
         <v>167</v>
       </c>
@@ -2716,6 +2845,9 @@
       <c r="A126" t="s">
         <v>124</v>
       </c>
+      <c r="B126" t="s">
+        <v>168</v>
+      </c>
       <c r="E126" t="s">
         <v>167</v>
       </c>
@@ -2724,6 +2856,9 @@
       <c r="A127" t="s">
         <v>125</v>
       </c>
+      <c r="B127" t="s">
+        <v>168</v>
+      </c>
       <c r="E127" t="s">
         <v>167</v>
       </c>
@@ -2732,6 +2867,9 @@
       <c r="A128" t="s">
         <v>126</v>
       </c>
+      <c r="B128" t="s">
+        <v>168</v>
+      </c>
       <c r="E128" t="s">
         <v>167</v>
       </c>
@@ -2740,6 +2878,9 @@
       <c r="A129" t="s">
         <v>127</v>
       </c>
+      <c r="B129" t="s">
+        <v>168</v>
+      </c>
       <c r="E129" t="s">
         <v>167</v>
       </c>
@@ -2748,6 +2889,9 @@
       <c r="A130" t="s">
         <v>128</v>
       </c>
+      <c r="B130" t="s">
+        <v>168</v>
+      </c>
       <c r="E130" t="s">
         <v>167</v>
       </c>
@@ -2756,6 +2900,9 @@
       <c r="A131" t="s">
         <v>129</v>
       </c>
+      <c r="B131" t="s">
+        <v>168</v>
+      </c>
       <c r="E131" t="s">
         <v>167</v>
       </c>
@@ -2764,6 +2911,9 @@
       <c r="A132" t="s">
         <v>130</v>
       </c>
+      <c r="B132" t="s">
+        <v>168</v>
+      </c>
       <c r="E132" t="s">
         <v>167</v>
       </c>
@@ -2772,6 +2922,9 @@
       <c r="A133" t="s">
         <v>131</v>
       </c>
+      <c r="B133" t="s">
+        <v>168</v>
+      </c>
       <c r="E133" t="s">
         <v>167</v>
       </c>
@@ -2780,6 +2933,9 @@
       <c r="A134" t="s">
         <v>132</v>
       </c>
+      <c r="B134" t="s">
+        <v>168</v>
+      </c>
       <c r="E134" t="s">
         <v>167</v>
       </c>
@@ -2788,6 +2944,9 @@
       <c r="A135" t="s">
         <v>133</v>
       </c>
+      <c r="B135" t="s">
+        <v>168</v>
+      </c>
       <c r="E135" t="s">
         <v>167</v>
       </c>
@@ -2796,6 +2955,9 @@
       <c r="A136" t="s">
         <v>134</v>
       </c>
+      <c r="B136" t="s">
+        <v>168</v>
+      </c>
       <c r="E136" t="s">
         <v>167</v>
       </c>
@@ -2804,6 +2966,9 @@
       <c r="A137" t="s">
         <v>135</v>
       </c>
+      <c r="B137" t="s">
+        <v>168</v>
+      </c>
       <c r="E137" t="s">
         <v>167</v>
       </c>
@@ -2811,6 +2976,9 @@
     <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>168</v>
       </c>
       <c r="E138" t="s">
         <v>167</v>

--- a/ADNIsubjects_fmri_PreprocessTrack.xlsx
+++ b/ADNIsubjects_fmri_PreprocessTrack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="192">
   <si>
     <t>subject ID</t>
   </si>
@@ -586,6 +586,12 @@
   </si>
   <si>
     <t xml:space="preserve">Y </t>
+  </si>
+  <si>
+    <t>Y No Data</t>
+  </si>
+  <si>
+    <t>No data</t>
   </si>
 </sst>
 </file>
@@ -919,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1226,7 +1232,7 @@
       </c>
       <c r="J16">
         <f>COUNTIF(D:D,"Y")</f>
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1267,7 +1273,7 @@
       </c>
       <c r="J18">
         <f>COUNTIF(D:D,"X")</f>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1308,7 +1314,7 @@
       </c>
       <c r="J20">
         <f>COUNTA(B:B)-COUNTA(D:D)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2699,6 +2705,12 @@
       <c r="B111" t="s">
         <v>168</v>
       </c>
+      <c r="C111" t="s">
+        <v>168</v>
+      </c>
+      <c r="D111" t="s">
+        <v>168</v>
+      </c>
       <c r="E111" t="s">
         <v>122</v>
       </c>
@@ -2738,6 +2750,12 @@
       <c r="B114" t="s">
         <v>168</v>
       </c>
+      <c r="C114" t="s">
+        <v>168</v>
+      </c>
+      <c r="D114" t="s">
+        <v>168</v>
+      </c>
       <c r="E114" t="s">
         <v>122</v>
       </c>
@@ -2749,6 +2767,12 @@
       <c r="B115" t="s">
         <v>168</v>
       </c>
+      <c r="C115" t="s">
+        <v>168</v>
+      </c>
+      <c r="D115" t="s">
+        <v>168</v>
+      </c>
       <c r="E115" t="s">
         <v>122</v>
       </c>
@@ -2760,6 +2784,12 @@
       <c r="B116" t="s">
         <v>168</v>
       </c>
+      <c r="C116" t="s">
+        <v>168</v>
+      </c>
+      <c r="D116" t="s">
+        <v>168</v>
+      </c>
       <c r="E116" t="s">
         <v>122</v>
       </c>
@@ -2771,6 +2801,12 @@
       <c r="B117" t="s">
         <v>168</v>
       </c>
+      <c r="C117" t="s">
+        <v>168</v>
+      </c>
+      <c r="D117" t="s">
+        <v>168</v>
+      </c>
       <c r="E117" t="s">
         <v>122</v>
       </c>
@@ -2782,6 +2818,12 @@
       <c r="B118" t="s">
         <v>168</v>
       </c>
+      <c r="C118" t="s">
+        <v>168</v>
+      </c>
+      <c r="D118" t="s">
+        <v>168</v>
+      </c>
       <c r="E118" t="s">
         <v>122</v>
       </c>
@@ -2793,6 +2835,12 @@
       <c r="B119" t="s">
         <v>168</v>
       </c>
+      <c r="C119" t="s">
+        <v>168</v>
+      </c>
+      <c r="D119" t="s">
+        <v>168</v>
+      </c>
       <c r="E119" t="s">
         <v>122</v>
       </c>
@@ -2804,6 +2852,12 @@
       <c r="B120" t="s">
         <v>168</v>
       </c>
+      <c r="C120" t="s">
+        <v>168</v>
+      </c>
+      <c r="D120" t="s">
+        <v>168</v>
+      </c>
       <c r="E120" t="s">
         <v>122</v>
       </c>
@@ -2815,6 +2869,12 @@
       <c r="B121" t="s">
         <v>168</v>
       </c>
+      <c r="C121" t="s">
+        <v>168</v>
+      </c>
+      <c r="D121" t="s">
+        <v>168</v>
+      </c>
       <c r="E121" t="s">
         <v>122</v>
       </c>
@@ -2826,6 +2886,12 @@
       <c r="B122" t="s">
         <v>168</v>
       </c>
+      <c r="C122" t="s">
+        <v>168</v>
+      </c>
+      <c r="D122" t="s">
+        <v>168</v>
+      </c>
       <c r="E122" t="s">
         <v>122</v>
       </c>
@@ -2835,7 +2901,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="D125" t="s">
+        <v>182</v>
       </c>
       <c r="E125" t="s">
         <v>167</v>
@@ -2846,7 +2915,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>172</v>
+      </c>
+      <c r="D126" t="s">
+        <v>182</v>
       </c>
       <c r="E126" t="s">
         <v>167</v>
@@ -2859,6 +2931,12 @@
       <c r="B127" t="s">
         <v>168</v>
       </c>
+      <c r="C127" t="s">
+        <v>168</v>
+      </c>
+      <c r="D127" t="s">
+        <v>168</v>
+      </c>
       <c r="E127" t="s">
         <v>167</v>
       </c>
@@ -2870,6 +2948,12 @@
       <c r="B128" t="s">
         <v>168</v>
       </c>
+      <c r="C128" t="s">
+        <v>168</v>
+      </c>
+      <c r="D128" t="s">
+        <v>168</v>
+      </c>
       <c r="E128" t="s">
         <v>167</v>
       </c>
@@ -2881,6 +2965,12 @@
       <c r="B129" t="s">
         <v>168</v>
       </c>
+      <c r="C129" t="s">
+        <v>168</v>
+      </c>
+      <c r="D129" t="s">
+        <v>168</v>
+      </c>
       <c r="E129" t="s">
         <v>167</v>
       </c>
@@ -2892,6 +2982,12 @@
       <c r="B130" t="s">
         <v>168</v>
       </c>
+      <c r="C130" t="s">
+        <v>168</v>
+      </c>
+      <c r="D130" t="s">
+        <v>168</v>
+      </c>
       <c r="E130" t="s">
         <v>167</v>
       </c>
@@ -2903,6 +2999,12 @@
       <c r="B131" t="s">
         <v>168</v>
       </c>
+      <c r="C131" t="s">
+        <v>168</v>
+      </c>
+      <c r="D131" t="s">
+        <v>168</v>
+      </c>
       <c r="E131" t="s">
         <v>167</v>
       </c>
@@ -2914,6 +3016,12 @@
       <c r="B132" t="s">
         <v>168</v>
       </c>
+      <c r="C132" t="s">
+        <v>168</v>
+      </c>
+      <c r="D132" t="s">
+        <v>168</v>
+      </c>
       <c r="E132" t="s">
         <v>167</v>
       </c>
@@ -2925,6 +3033,12 @@
       <c r="B133" t="s">
         <v>168</v>
       </c>
+      <c r="C133" t="s">
+        <v>168</v>
+      </c>
+      <c r="D133" t="s">
+        <v>168</v>
+      </c>
       <c r="E133" t="s">
         <v>167</v>
       </c>
@@ -2936,6 +3050,12 @@
       <c r="B134" t="s">
         <v>168</v>
       </c>
+      <c r="C134" t="s">
+        <v>168</v>
+      </c>
+      <c r="D134" t="s">
+        <v>168</v>
+      </c>
       <c r="E134" t="s">
         <v>167</v>
       </c>
@@ -2945,7 +3065,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>168</v>
+        <v>190</v>
+      </c>
+      <c r="D135" t="s">
+        <v>182</v>
       </c>
       <c r="E135" t="s">
         <v>167</v>
@@ -2958,6 +3081,12 @@
       <c r="B136" t="s">
         <v>168</v>
       </c>
+      <c r="C136" t="s">
+        <v>168</v>
+      </c>
+      <c r="D136" t="s">
+        <v>168</v>
+      </c>
       <c r="E136" t="s">
         <v>167</v>
       </c>
@@ -2969,6 +3098,12 @@
       <c r="B137" t="s">
         <v>168</v>
       </c>
+      <c r="C137" t="s">
+        <v>168</v>
+      </c>
+      <c r="D137" t="s">
+        <v>168</v>
+      </c>
       <c r="E137" t="s">
         <v>167</v>
       </c>
@@ -2980,6 +3115,12 @@
       <c r="B138" t="s">
         <v>168</v>
       </c>
+      <c r="C138" t="s">
+        <v>168</v>
+      </c>
+      <c r="D138" t="s">
+        <v>168</v>
+      </c>
       <c r="E138" t="s">
         <v>167</v>
       </c>
@@ -2988,6 +3129,12 @@
       <c r="A139" t="s">
         <v>137</v>
       </c>
+      <c r="B139" t="s">
+        <v>191</v>
+      </c>
+      <c r="D139" t="s">
+        <v>182</v>
+      </c>
       <c r="E139" t="s">
         <v>167</v>
       </c>
@@ -2996,6 +3143,15 @@
       <c r="A140" t="s">
         <v>138</v>
       </c>
+      <c r="B140" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" t="s">
+        <v>168</v>
+      </c>
+      <c r="D140" t="s">
+        <v>168</v>
+      </c>
       <c r="E140" t="s">
         <v>167</v>
       </c>
@@ -3004,6 +3160,15 @@
       <c r="A141" t="s">
         <v>139</v>
       </c>
+      <c r="B141" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" t="s">
+        <v>168</v>
+      </c>
+      <c r="D141" t="s">
+        <v>168</v>
+      </c>
       <c r="E141" t="s">
         <v>167</v>
       </c>
@@ -3012,6 +3177,12 @@
       <c r="A142" t="s">
         <v>140</v>
       </c>
+      <c r="B142" t="s">
+        <v>191</v>
+      </c>
+      <c r="D142" t="s">
+        <v>182</v>
+      </c>
       <c r="E142" t="s">
         <v>167</v>
       </c>
@@ -3020,6 +3191,15 @@
       <c r="A143" t="s">
         <v>141</v>
       </c>
+      <c r="B143" t="s">
+        <v>168</v>
+      </c>
+      <c r="C143" t="s">
+        <v>168</v>
+      </c>
+      <c r="D143" t="s">
+        <v>168</v>
+      </c>
       <c r="E143" t="s">
         <v>167</v>
       </c>
@@ -3028,6 +3208,15 @@
       <c r="A144" t="s">
         <v>142</v>
       </c>
+      <c r="B144" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" t="s">
+        <v>168</v>
+      </c>
+      <c r="D144" t="s">
+        <v>168</v>
+      </c>
       <c r="E144" t="s">
         <v>167</v>
       </c>
@@ -3036,6 +3225,15 @@
       <c r="A145" t="s">
         <v>143</v>
       </c>
+      <c r="B145" t="s">
+        <v>168</v>
+      </c>
+      <c r="C145" t="s">
+        <v>168</v>
+      </c>
+      <c r="D145" t="s">
+        <v>168</v>
+      </c>
       <c r="E145" t="s">
         <v>167</v>
       </c>
@@ -3044,6 +3242,15 @@
       <c r="A146" t="s">
         <v>144</v>
       </c>
+      <c r="B146" t="s">
+        <v>168</v>
+      </c>
+      <c r="C146" t="s">
+        <v>168</v>
+      </c>
+      <c r="D146" t="s">
+        <v>168</v>
+      </c>
       <c r="E146" t="s">
         <v>167</v>
       </c>
@@ -3052,6 +3259,15 @@
       <c r="A147" t="s">
         <v>145</v>
       </c>
+      <c r="B147" t="s">
+        <v>168</v>
+      </c>
+      <c r="C147" t="s">
+        <v>168</v>
+      </c>
+      <c r="D147" t="s">
+        <v>168</v>
+      </c>
       <c r="E147" t="s">
         <v>167</v>
       </c>
@@ -3060,6 +3276,15 @@
       <c r="A148" t="s">
         <v>146</v>
       </c>
+      <c r="B148" t="s">
+        <v>168</v>
+      </c>
+      <c r="C148" t="s">
+        <v>168</v>
+      </c>
+      <c r="D148" t="s">
+        <v>168</v>
+      </c>
       <c r="E148" t="s">
         <v>167</v>
       </c>
@@ -3068,6 +3293,9 @@
       <c r="A149" t="s">
         <v>147</v>
       </c>
+      <c r="B149" t="s">
+        <v>168</v>
+      </c>
       <c r="E149" t="s">
         <v>167</v>
       </c>
@@ -3076,6 +3304,9 @@
       <c r="A150" t="s">
         <v>148</v>
       </c>
+      <c r="B150" t="s">
+        <v>168</v>
+      </c>
       <c r="E150" t="s">
         <v>167</v>
       </c>
@@ -3084,6 +3315,9 @@
       <c r="A151" t="s">
         <v>149</v>
       </c>
+      <c r="B151" t="s">
+        <v>168</v>
+      </c>
       <c r="E151" t="s">
         <v>167</v>
       </c>
@@ -3092,6 +3326,9 @@
       <c r="A152" t="s">
         <v>150</v>
       </c>
+      <c r="B152" t="s">
+        <v>168</v>
+      </c>
       <c r="E152" t="s">
         <v>167</v>
       </c>
@@ -3100,6 +3337,9 @@
       <c r="A153" t="s">
         <v>151</v>
       </c>
+      <c r="B153" t="s">
+        <v>168</v>
+      </c>
       <c r="E153" t="s">
         <v>167</v>
       </c>
@@ -3108,6 +3348,9 @@
       <c r="A154" t="s">
         <v>152</v>
       </c>
+      <c r="B154" t="s">
+        <v>168</v>
+      </c>
       <c r="E154" t="s">
         <v>167</v>
       </c>
@@ -3116,6 +3359,9 @@
       <c r="A155" t="s">
         <v>153</v>
       </c>
+      <c r="B155" t="s">
+        <v>168</v>
+      </c>
       <c r="E155" t="s">
         <v>167</v>
       </c>
@@ -3124,6 +3370,9 @@
       <c r="A156" t="s">
         <v>154</v>
       </c>
+      <c r="B156" t="s">
+        <v>168</v>
+      </c>
       <c r="E156" t="s">
         <v>167</v>
       </c>
@@ -3132,6 +3381,9 @@
       <c r="A157" t="s">
         <v>155</v>
       </c>
+      <c r="B157" t="s">
+        <v>168</v>
+      </c>
       <c r="E157" t="s">
         <v>167</v>
       </c>
@@ -3140,6 +3392,9 @@
       <c r="A158" t="s">
         <v>156</v>
       </c>
+      <c r="B158" t="s">
+        <v>168</v>
+      </c>
       <c r="E158" t="s">
         <v>167</v>
       </c>
@@ -3148,6 +3403,9 @@
       <c r="A159" t="s">
         <v>157</v>
       </c>
+      <c r="B159" t="s">
+        <v>168</v>
+      </c>
       <c r="E159" t="s">
         <v>167</v>
       </c>
@@ -3156,6 +3414,9 @@
       <c r="A160" t="s">
         <v>158</v>
       </c>
+      <c r="B160" t="s">
+        <v>168</v>
+      </c>
       <c r="E160" t="s">
         <v>167</v>
       </c>
@@ -3164,6 +3425,9 @@
       <c r="A161" t="s">
         <v>159</v>
       </c>
+      <c r="B161" t="s">
+        <v>168</v>
+      </c>
       <c r="E161" t="s">
         <v>167</v>
       </c>
@@ -3172,6 +3436,9 @@
       <c r="A162" t="s">
         <v>160</v>
       </c>
+      <c r="B162" t="s">
+        <v>168</v>
+      </c>
       <c r="E162" t="s">
         <v>167</v>
       </c>
@@ -3180,6 +3447,9 @@
       <c r="A163" t="s">
         <v>161</v>
       </c>
+      <c r="B163" t="s">
+        <v>168</v>
+      </c>
       <c r="E163" t="s">
         <v>167</v>
       </c>
@@ -3188,6 +3458,9 @@
       <c r="A164" t="s">
         <v>162</v>
       </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
       <c r="E164" t="s">
         <v>167</v>
       </c>
@@ -3196,6 +3469,9 @@
       <c r="A165" t="s">
         <v>163</v>
       </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
       <c r="E165" t="s">
         <v>167</v>
       </c>
@@ -3204,6 +3480,9 @@
       <c r="A166" t="s">
         <v>164</v>
       </c>
+      <c r="B166" t="s">
+        <v>168</v>
+      </c>
       <c r="E166" t="s">
         <v>167</v>
       </c>
@@ -3212,6 +3491,9 @@
       <c r="A167" t="s">
         <v>165</v>
       </c>
+      <c r="B167" t="s">
+        <v>168</v>
+      </c>
       <c r="E167" t="s">
         <v>167</v>
       </c>
@@ -3219,6 +3501,9 @@
     <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
       </c>
       <c r="E168" t="s">
         <v>167</v>

--- a/ADNIsubjects_fmri_PreprocessTrack.xlsx
+++ b/ADNIsubjects_fmri_PreprocessTrack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="192">
   <si>
     <t>subject ID</t>
   </si>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="J16">
         <f>COUNTIF(D:D,"Y")</f>
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="J18">
         <f>COUNTIF(D:D,"X")</f>
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="J20">
         <f>COUNTA(B:B)-COUNTA(D:D)</f>
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3296,6 +3296,12 @@
       <c r="B149" t="s">
         <v>168</v>
       </c>
+      <c r="C149" t="s">
+        <v>168</v>
+      </c>
+      <c r="D149" t="s">
+        <v>168</v>
+      </c>
       <c r="E149" t="s">
         <v>167</v>
       </c>
@@ -3307,6 +3313,12 @@
       <c r="B150" t="s">
         <v>168</v>
       </c>
+      <c r="C150" t="s">
+        <v>168</v>
+      </c>
+      <c r="D150" t="s">
+        <v>168</v>
+      </c>
       <c r="E150" t="s">
         <v>167</v>
       </c>
@@ -3318,6 +3330,12 @@
       <c r="B151" t="s">
         <v>168</v>
       </c>
+      <c r="C151" t="s">
+        <v>168</v>
+      </c>
+      <c r="D151" t="s">
+        <v>168</v>
+      </c>
       <c r="E151" t="s">
         <v>167</v>
       </c>
@@ -3329,6 +3347,12 @@
       <c r="B152" t="s">
         <v>168</v>
       </c>
+      <c r="C152" t="s">
+        <v>168</v>
+      </c>
+      <c r="D152" t="s">
+        <v>168</v>
+      </c>
       <c r="E152" t="s">
         <v>167</v>
       </c>
@@ -3340,6 +3364,12 @@
       <c r="B153" t="s">
         <v>168</v>
       </c>
+      <c r="C153" t="s">
+        <v>168</v>
+      </c>
+      <c r="D153" t="s">
+        <v>168</v>
+      </c>
       <c r="E153" t="s">
         <v>167</v>
       </c>
@@ -3349,7 +3379,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="D154" t="s">
+        <v>182</v>
       </c>
       <c r="E154" t="s">
         <v>167</v>
@@ -3360,7 +3393,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="D155" t="s">
+        <v>182</v>
       </c>
       <c r="E155" t="s">
         <v>167</v>
@@ -3371,7 +3407,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="D156" t="s">
+        <v>182</v>
       </c>
       <c r="E156" t="s">
         <v>167</v>
@@ -3382,7 +3421,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="D157" t="s">
+        <v>182</v>
       </c>
       <c r="E157" t="s">
         <v>167</v>
@@ -3393,7 +3435,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="D158" t="s">
+        <v>182</v>
       </c>
       <c r="E158" t="s">
         <v>167</v>
@@ -3404,7 +3449,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="D159" t="s">
+        <v>182</v>
       </c>
       <c r="E159" t="s">
         <v>167</v>
@@ -3417,6 +3465,12 @@
       <c r="B160" t="s">
         <v>168</v>
       </c>
+      <c r="C160" t="s">
+        <v>168</v>
+      </c>
+      <c r="D160" t="s">
+        <v>168</v>
+      </c>
       <c r="E160" t="s">
         <v>167</v>
       </c>
@@ -3428,6 +3482,12 @@
       <c r="B161" t="s">
         <v>168</v>
       </c>
+      <c r="C161" t="s">
+        <v>168</v>
+      </c>
+      <c r="D161" t="s">
+        <v>168</v>
+      </c>
       <c r="E161" t="s">
         <v>167</v>
       </c>
@@ -3439,6 +3499,12 @@
       <c r="B162" t="s">
         <v>168</v>
       </c>
+      <c r="C162" t="s">
+        <v>168</v>
+      </c>
+      <c r="D162" t="s">
+        <v>168</v>
+      </c>
       <c r="E162" t="s">
         <v>167</v>
       </c>
@@ -3450,6 +3516,12 @@
       <c r="B163" t="s">
         <v>168</v>
       </c>
+      <c r="C163" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" t="s">
+        <v>168</v>
+      </c>
       <c r="E163" t="s">
         <v>167</v>
       </c>
@@ -3461,6 +3533,12 @@
       <c r="B164" t="s">
         <v>168</v>
       </c>
+      <c r="C164" t="s">
+        <v>168</v>
+      </c>
+      <c r="D164" t="s">
+        <v>168</v>
+      </c>
       <c r="E164" t="s">
         <v>167</v>
       </c>
@@ -3472,6 +3550,12 @@
       <c r="B165" t="s">
         <v>168</v>
       </c>
+      <c r="C165" t="s">
+        <v>168</v>
+      </c>
+      <c r="D165" t="s">
+        <v>168</v>
+      </c>
       <c r="E165" t="s">
         <v>167</v>
       </c>
@@ -3483,6 +3567,12 @@
       <c r="B166" t="s">
         <v>168</v>
       </c>
+      <c r="C166" t="s">
+        <v>168</v>
+      </c>
+      <c r="D166" t="s">
+        <v>168</v>
+      </c>
       <c r="E166" t="s">
         <v>167</v>
       </c>
@@ -3494,6 +3584,12 @@
       <c r="B167" t="s">
         <v>168</v>
       </c>
+      <c r="C167" t="s">
+        <v>168</v>
+      </c>
+      <c r="D167" t="s">
+        <v>168</v>
+      </c>
       <c r="E167" t="s">
         <v>167</v>
       </c>
@@ -3503,6 +3599,12 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" t="s">
+        <v>168</v>
+      </c>
+      <c r="D168" t="s">
         <v>168</v>
       </c>
       <c r="E168" t="s">
@@ -3518,7 +3620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
